--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.320099833421409e-12</v>
+        <v>9.022187441587448e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.320099833421409e-12</v>
+        <v>9.022187441587448e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86318.18755169812</v>
+        <v>5988147.316215605</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86318.18755169812</v>
+        <v>5988147.316215605</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494343759.087076</v>
+        <v>53775026.48649821</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15250.28051211375</v>
+        <v>1196769.251253044</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29927.17392003155</v>
+        <v>2291611.961440274</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44581.21207248646</v>
+        <v>3386454.671627503</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60217.36318008135</v>
+        <v>4412689.268012068</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75182.99515052141</v>
+        <v>5506434.637304065</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90148.62712096151</v>
+        <v>6600180.006596062</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>105114.2590914016</v>
+        <v>7693925.375888052</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>120079.8910618417</v>
+        <v>8787670.745180042</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135716.0421694366</v>
+        <v>9813905.341564599</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>150696.1267098572</v>
+        <v>10906668.44942727</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>165661.7586802973</v>
+        <v>12000413.81871926</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180627.3711899226</v>
+        <v>13094159.18801126</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>195593.0031603627</v>
+        <v>14187904.55730326</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>210573.0877007832</v>
+        <v>15280667.66516595</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>227163.9125071109</v>
+        <v>16184938.30260591</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>134</v>
@@ -27052,13 +27052,13 @@
         <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>90</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
